--- a/sputnik/personal/ee/25ee.xlsx
+++ b/sputnik/personal/ee/25ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Мама\Desktop\ЭЭ по 15.02.2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Мама\Desktop\ЭЭ по 14.03.2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,14 +21,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>Дата оплаты</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
     <t>Показания на день оплаты</t>
   </si>
   <si>
@@ -38,9 +35,6 @@
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Т1</t>
   </si>
   <si>
@@ -48,14 +42,33 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>задолженность</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="#,##0.00&quot; ₽&quot;"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0.00&quot; ₽&quot;"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -81,7 +94,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color indexed="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -95,7 +107,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -133,19 +145,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -163,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -178,27 +177,42 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -569,403 +583,321 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F17:F18"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>43379</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="C2" s="2">
+        <v>1862</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+    </row>
+    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>43106</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="C3" s="2">
+        <v>810</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4">
-        <v>1462</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4">
-        <v>610</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>43253</v>
+        <v>43602</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1662</v>
+        <v>4</v>
+      </c>
+      <c r="C4" s="21">
+        <v>1887</v>
       </c>
       <c r="D4" s="2">
-        <f>SUM(C4,-C2)</f>
-        <v>200</v>
-      </c>
-      <c r="E4" s="2">
-        <v>4.29</v>
-      </c>
-      <c r="F4" s="6">
-        <f t="shared" ref="F4:F16" si="0">D4*E4</f>
-        <v>858</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
+        <f t="shared" ref="D4:D7" si="0">C4-C2</f>
+        <v>25</v>
+      </c>
+      <c r="E4" s="8">
+        <v>4.57</v>
+      </c>
+      <c r="F4" s="9">
+        <f t="shared" ref="F4:F9" si="1">D4*E4</f>
+        <v>114.25</v>
+      </c>
+      <c r="G4" s="9">
+        <f>SUM(F4,F5)</f>
+        <v>221.8</v>
+      </c>
+      <c r="H4" s="16">
+        <v>221.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2">
-        <v>710</v>
+        <v>5</v>
+      </c>
+      <c r="C5" s="21">
+        <v>855</v>
       </c>
       <c r="D5" s="2">
-        <f>SUM(C5,-C3)</f>
-        <v>100</v>
-      </c>
-      <c r="E5" s="2">
-        <v>2.17</v>
-      </c>
-      <c r="F5" s="6">
         <f t="shared" si="0"/>
-        <v>217</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="E5" s="8">
+        <v>2.39</v>
+      </c>
+      <c r="F5" s="9">
+        <f t="shared" si="1"/>
+        <v>107.55000000000001</v>
+      </c>
+      <c r="G5" s="17"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <v>43309</v>
+        <v>43646</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1762</v>
+        <v>4</v>
+      </c>
+      <c r="C6" s="21">
+        <v>2010</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" ref="D6:D13" si="1">C6-C4</f>
-        <v>100</v>
-      </c>
-      <c r="E6" s="7">
-        <v>4.5</v>
-      </c>
-      <c r="F6" s="6">
         <f t="shared" si="0"/>
-        <v>450</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
+        <v>123</v>
+      </c>
+      <c r="E6" s="8">
+        <v>4.57</v>
+      </c>
+      <c r="F6" s="9">
+        <f t="shared" si="1"/>
+        <v>562.11</v>
+      </c>
+      <c r="G6" s="9">
+        <f>SUM(F6,F7)</f>
+        <v>669.66000000000008</v>
+      </c>
+      <c r="H6" s="16">
+        <v>664.88</v>
+      </c>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2">
-        <v>760</v>
+        <v>5</v>
+      </c>
+      <c r="C7" s="21">
+        <v>900</v>
       </c>
       <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="E7" s="8">
+        <v>2.39</v>
+      </c>
+      <c r="F7" s="9">
         <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="E7" s="7">
-        <v>2.35</v>
-      </c>
-      <c r="F7" s="6">
-        <f t="shared" si="0"/>
-        <v>117.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>107.55000000000001</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <v>43379</v>
+        <v>43692</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1862</v>
+        <v>4</v>
+      </c>
+      <c r="C8" s="21">
+        <v>2127</v>
       </c>
       <c r="D8" s="2">
+        <f>C8-C6</f>
+        <v>117</v>
+      </c>
+      <c r="E8" s="8">
+        <v>4.49</v>
+      </c>
+      <c r="F8" s="9">
         <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="E8" s="7">
-        <v>4.5</v>
-      </c>
-      <c r="F8" s="6">
-        <f t="shared" si="0"/>
-        <v>450</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+        <v>525.33000000000004</v>
+      </c>
+      <c r="G8" s="9">
+        <f>SUM(F8,F9)</f>
+        <v>586.08000000000004</v>
+      </c>
+      <c r="H8" s="16">
+        <v>586.08000000000004</v>
+      </c>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2">
-        <v>810</v>
+        <v>5</v>
+      </c>
+      <c r="C9" s="21">
+        <v>925</v>
       </c>
       <c r="D9" s="2">
+        <f>C9-C7</f>
+        <v>25</v>
+      </c>
+      <c r="E9" s="8">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F9" s="9">
         <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="E9" s="2">
-        <v>2.35</v>
-      </c>
-      <c r="F9" s="13">
-        <f t="shared" si="0"/>
-        <v>117.5</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>60.750000000000007</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <v>43602</v>
+        <v>43725</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="8">
-        <v>1887</v>
+        <v>4</v>
+      </c>
+      <c r="C10" s="21">
+        <v>2327</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="E10" s="12">
-        <v>4.57</v>
-      </c>
-      <c r="F10" s="6">
-        <f t="shared" si="0"/>
-        <v>114.25</v>
+        <f>C10-C8</f>
+        <v>200</v>
+      </c>
+      <c r="E10" s="8">
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="9">
+        <f>D10*E10</f>
+        <v>898</v>
+      </c>
+      <c r="G10" s="9">
+        <f>SUM(F10,F11)</f>
+        <v>1019.5</v>
+      </c>
+      <c r="H10" s="16">
+        <v>1019.5</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="8">
-        <v>855</v>
+        <v>5</v>
+      </c>
+      <c r="C11" s="21">
+        <v>975</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="E11" s="12">
-        <v>2.39</v>
-      </c>
-      <c r="F11" s="6">
-        <f t="shared" si="0"/>
-        <v>107.55000000000001</v>
-      </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
+        <f>C11-C9</f>
+        <v>50</v>
+      </c>
+      <c r="E11" s="8">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F11" s="9">
+        <f>D11*E11</f>
+        <v>121.50000000000001</v>
+      </c>
+      <c r="G11" s="17"/>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>43646</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="8">
-        <v>2010</v>
-      </c>
-      <c r="D12" s="2">
-        <f t="shared" si="1"/>
-        <v>123</v>
-      </c>
-      <c r="E12" s="12">
-        <v>4.57</v>
-      </c>
-      <c r="F12" s="6">
-        <f t="shared" si="0"/>
-        <v>562.11</v>
-      </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="9">
+        <f>SUM(G4:G11)</f>
+        <v>2497.04</v>
+      </c>
+      <c r="H12" s="19">
+        <f>SUM(H4:H11)</f>
+        <v>2492.2600000000002</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="8">
-        <v>900</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="E13" s="12">
-        <v>2.39</v>
-      </c>
-      <c r="F13" s="6">
-        <f t="shared" si="0"/>
-        <v>107.55000000000001</v>
-      </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="10"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="10"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>43692</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="8">
-        <v>2127</v>
-      </c>
-      <c r="D15" s="2">
-        <f>C15-C12</f>
-        <v>117</v>
-      </c>
-      <c r="E15" s="12">
-        <v>4.49</v>
-      </c>
-      <c r="F15" s="6">
-        <f t="shared" si="0"/>
-        <v>525.33000000000004</v>
-      </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="8">
-        <v>925</v>
-      </c>
-      <c r="D16" s="2">
-        <f>C16-C13</f>
-        <v>25</v>
-      </c>
-      <c r="E16" s="12">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F16" s="6">
-        <f t="shared" si="0"/>
-        <v>60.750000000000007</v>
-      </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>43725</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="8">
-        <v>2327</v>
-      </c>
-      <c r="D17" s="2">
-        <f>C17-C15</f>
-        <v>200</v>
-      </c>
-      <c r="E17" s="12">
-        <v>4.49</v>
-      </c>
-      <c r="F17" s="6">
-        <f>D17*E17</f>
-        <v>898</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="8">
-        <v>975</v>
-      </c>
-      <c r="D18" s="2">
-        <f>C18-C16</f>
-        <v>50</v>
-      </c>
-      <c r="E18" s="12">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F18" s="6">
-        <f>D18*E18</f>
-        <v>121.50000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="6"/>
+      <c r="F13" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="19">
+        <f>SUM(H12,-G12)</f>
+        <v>-4.7799999999997453</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>

--- a/sputnik/personal/ee/25ee.xlsx
+++ b/sputnik/personal/ee/25ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slime\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\новое ee 03.06.2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -92,7 +92,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -115,22 +115,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -147,7 +136,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -431,7 +419,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="G13" sqref="G12:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,11 +704,58 @@
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="7"/>
-      <c r="G12" s="8"/>
+      <c r="A12" s="4">
+        <v>43976</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2510</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" ref="D12:D13" si="3">C12-C10</f>
+        <v>183</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" ref="F12:F13" si="4">D12*E12</f>
+        <v>821.67000000000007</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" ref="G12:G13" si="5">F12</f>
+        <v>821.67000000000007</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1011.21</v>
+      </c>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="7"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1053</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="4"/>
+        <v>189.54000000000002</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="5"/>
+        <v>189.54000000000002</v>
+      </c>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="7"/>

--- a/sputnik/personal/ee/25ee.xlsx
+++ b/sputnik/personal/ee/25ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\новое ee 03.06.2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\30.06.2020.ОБНОВЛЕНИЕ САЙТА\новое ee 30.06.2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -419,7 +419,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G12:G13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,10 +758,55 @@
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="7"/>
+      <c r="A14" s="4">
+        <v>44040</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2731</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" ref="D14:D15" si="6">C14-C12</f>
+        <v>221</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" ref="F14:F15" si="7">D14*E14</f>
+        <v>1040.9100000000001</v>
+      </c>
+      <c r="G14" s="3">
+        <f>SUM(F14,F15)</f>
+        <v>1199.01</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1201.1300000000001</v>
+      </c>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="7"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1115</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="6"/>
+        <v>62</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="7"/>
+        <v>158.1</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>

--- a/sputnik/personal/ee/25ee.xlsx
+++ b/sputnik/personal/ee/25ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\30.06.2020.ОБНОВЛЕНИЕ САЙТА\новое ee 30.06.2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\30.06.2020.ОБНОВЛЕНИЕ САЙТА\новое ee 31.07.2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>T2</t>
+  </si>
+  <si>
+    <t>38.08.2020</t>
   </si>
 </sst>
 </file>
@@ -119,7 +122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -135,6 +138,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -419,7 +425,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -809,12 +815,57 @@
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="7"/>
-    </row>
-    <row r="17" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="7"/>
-    </row>
-    <row r="18" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2843</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" ref="D16:D17" si="8">C16-C14</f>
+        <v>112</v>
+      </c>
+      <c r="E16" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" ref="F16:F17" si="9">D16*E16</f>
+        <v>527.52</v>
+      </c>
+      <c r="G16" s="3">
+        <f>SUM(F16,F17)</f>
+        <v>609.12</v>
+      </c>
+      <c r="H16" s="3">
+        <v>609.12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1147</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="8"/>
+        <v>32</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="9"/>
+        <v>81.599999999999994</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/25ee.xlsx
+++ b/sputnik/personal/ee/25ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\30.06.2020.ОБНОВЛЕНИЕ САЙТА\новое ee 31.07.2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\30.09.2020.ОБНОВЛЕНИЕ САЙТА\новое ee 31.10.2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>T2</t>
-  </si>
-  <si>
-    <t>38.08.2020</t>
   </si>
 </sst>
 </file>
@@ -122,7 +119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -136,9 +133,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -422,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,8 +809,8 @@
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>10</v>
+      <c r="A16" s="7">
+        <v>44074</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>8</v>
@@ -866,7 +860,55 @@
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
+      <c r="A18" s="7">
+        <v>44106</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2924</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" ref="D18:D19" si="10">C18-C16</f>
+        <v>81</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" ref="F18:F19" si="11">D18*E18</f>
+        <v>381.51</v>
+      </c>
+      <c r="G18" s="3">
+        <f>SUM(F18,F19)</f>
+        <v>445.26</v>
+      </c>
+      <c r="H18" s="3">
+        <v>445.26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1172</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="10"/>
+        <v>25</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" si="11"/>
+        <v>63.749999999999993</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/25ee.xlsx
+++ b/sputnik/personal/ee/25ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\30.09.2020.ОБНОВЛЕНИЕ САЙТА\новое ee 31.10.2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\14.05.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.05.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -910,6 +910,57 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>44343</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="3">
+        <v>3114</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" ref="D20:D21" si="12">C20-C18</f>
+        <v>190</v>
+      </c>
+      <c r="E20" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="3">
+        <f t="shared" ref="F20:F21" si="13">D20*E20</f>
+        <v>894.9</v>
+      </c>
+      <c r="G20" s="3">
+        <f>SUM(F20,F21)</f>
+        <v>1124.3999999999999</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1124.4000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1262</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="12"/>
+        <v>90</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="3">
+        <f t="shared" si="13"/>
+        <v>229.49999999999997</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sputnik/personal/ee/25ee.xlsx
+++ b/sputnik/personal/ee/25ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\14.05.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.05.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\18.06.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 28.06.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -961,6 +961,57 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>44375</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="3">
+        <v>3250</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" ref="D22:D23" si="14">C22-C20</f>
+        <v>136</v>
+      </c>
+      <c r="E22" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F22" s="3">
+        <f t="shared" ref="F22:F23" si="15">D22*E22</f>
+        <v>640.55999999999995</v>
+      </c>
+      <c r="G22" s="3">
+        <f>SUM(F22,F23)</f>
+        <v>844.56</v>
+      </c>
+      <c r="H22" s="3">
+        <v>863.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1342</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="14"/>
+        <v>80</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" si="15"/>
+        <v>204</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sputnik/personal/ee/25ee.xlsx
+++ b/sputnik/personal/ee/25ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\18.06.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 28.06.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\06.09.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 06.09.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -60,7 +60,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,6 +82,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -119,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -136,6 +144,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -416,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,8 +627,8 @@
         <v>525.33000000000004</v>
       </c>
       <c r="G8" s="3">
-        <f t="shared" si="2"/>
-        <v>525.33000000000004</v>
+        <f>SUM(F8,F9)</f>
+        <v>586.08000000000004</v>
       </c>
       <c r="H8" s="3">
         <v>586.08000000000004</v>
@@ -643,10 +653,7 @@
         <f t="shared" si="1"/>
         <v>60.750000000000007</v>
       </c>
-      <c r="G9" s="3">
-        <f t="shared" si="2"/>
-        <v>60.750000000000007</v>
-      </c>
+      <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -968,7 +975,7 @@
       <c r="B22" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="9">
         <v>3250</v>
       </c>
       <c r="D22" s="3">
@@ -995,7 +1002,7 @@
       <c r="B23" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="9">
         <v>1342</v>
       </c>
       <c r="D23" s="3">
@@ -1012,7 +1019,109 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>44419</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="9">
+        <v>3352</v>
+      </c>
+      <c r="D24" s="3">
+        <v>102</v>
+      </c>
+      <c r="E24" s="3">
+        <v>4.96</v>
+      </c>
+      <c r="F24" s="3">
+        <f t="shared" ref="F24:F25" si="16">D24*E24</f>
+        <v>505.92</v>
+      </c>
+      <c r="G24" s="3">
+        <f>SUM(F24,F25)</f>
+        <v>516.64</v>
+      </c>
+      <c r="H24" s="8">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="9">
+        <v>1346</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" ref="D24:D25" si="17">C25-C23</f>
+        <v>4</v>
+      </c>
+      <c r="E25" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F25" s="3">
+        <f t="shared" si="16"/>
+        <v>10.72</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>44452</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="3">
+        <v>3526</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" ref="D26:D27" si="18">C26-C24</f>
+        <v>174</v>
+      </c>
+      <c r="E26" s="3">
+        <v>4.96</v>
+      </c>
+      <c r="F26" s="3">
+        <f t="shared" ref="F26:F27" si="19">D26*E26</f>
+        <v>863.04</v>
+      </c>
+      <c r="G26" s="3">
+        <f>SUM(F26,F27)</f>
+        <v>1013.12</v>
+      </c>
+      <c r="H26" s="8">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1402</v>
+      </c>
+      <c r="D27" s="3">
+        <f t="shared" si="18"/>
+        <v>56</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F27" s="3">
+        <f t="shared" si="19"/>
+        <v>150.08000000000001</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/sputnik/personal/ee/25ee.xlsx
+++ b/sputnik/personal/ee/25ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\06.09.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 06.09.2021 вкл-но\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\16.09.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 15.09.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -127,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -136,7 +136,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -426,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="A2" sqref="A2:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,15 +466,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>43379</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>44106</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="3">
-        <v>1862</v>
+        <v>2924</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -485,11 +484,11 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>810</v>
+        <v>1172</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -498,627 +497,207 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>43602</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="6">
+        <v>44343</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3">
-        <v>1887</v>
+        <v>3114</v>
       </c>
       <c r="D4" s="3">
-        <f>C4-C2</f>
-        <v>25</v>
+        <f t="shared" ref="D4:D5" si="0">C4-C2</f>
+        <v>190</v>
       </c>
       <c r="E4" s="3">
-        <v>4.57</v>
+        <v>4.71</v>
       </c>
       <c r="F4" s="3">
-        <f>D4*E4</f>
-        <v>114.25</v>
+        <f t="shared" ref="F4:F5" si="1">D4*E4</f>
+        <v>894.9</v>
       </c>
       <c r="G4" s="3">
-        <f>F4</f>
-        <v>114.25</v>
+        <f>SUM(F4,F5)</f>
+        <v>1124.3999999999999</v>
       </c>
       <c r="H4" s="3">
-        <v>221.8</v>
+        <v>1124.4000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="3">
-        <v>855</v>
+        <v>1262</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ref="D5:D11" si="0">C5-C3</f>
-        <v>45</v>
+        <f t="shared" si="0"/>
+        <v>90</v>
       </c>
       <c r="E5" s="3">
-        <v>2.39</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" ref="F5:F11" si="1">D5*E5</f>
-        <v>107.55000000000001</v>
-      </c>
-      <c r="G5" s="3">
-        <f t="shared" ref="G5:G11" si="2">F5</f>
-        <v>107.55000000000001</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>229.49999999999997</v>
+      </c>
+      <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>43646</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="6">
+        <v>44375</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3">
-        <v>2010</v>
+      <c r="C6" s="8">
+        <v>3250</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>123</v>
+        <f t="shared" ref="D6:D7" si="2">C6-C4</f>
+        <v>136</v>
       </c>
       <c r="E6" s="3">
-        <v>4.57</v>
+        <v>4.71</v>
       </c>
       <c r="F6" s="3">
-        <f t="shared" si="1"/>
-        <v>562.11</v>
+        <f t="shared" ref="F6:F7" si="3">D6*E6</f>
+        <v>640.55999999999995</v>
       </c>
       <c r="G6" s="3">
-        <f t="shared" si="2"/>
-        <v>562.11</v>
+        <f>SUM(F6,F7)</f>
+        <v>844.56</v>
       </c>
       <c r="H6" s="3">
-        <v>664.88</v>
+        <v>863.4</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="3">
-        <v>900</v>
+      <c r="C7" s="8">
+        <v>1342</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>45</v>
+        <f t="shared" si="2"/>
+        <v>80</v>
       </c>
       <c r="E7" s="3">
-        <v>2.39</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" si="1"/>
-        <v>107.55000000000001</v>
-      </c>
-      <c r="G7" s="3">
-        <f t="shared" si="2"/>
-        <v>107.55000000000001</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>204</v>
+      </c>
+      <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>43692</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="6">
+        <v>44419</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3">
-        <v>2127</v>
+      <c r="C8" s="8">
+        <v>3352</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="E8" s="3">
-        <v>4.49</v>
+        <v>4.96</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" si="1"/>
-        <v>525.33000000000004</v>
+        <f t="shared" ref="F8:F9" si="4">D8*E8</f>
+        <v>505.92</v>
       </c>
       <c r="G8" s="3">
         <f>SUM(F8,F9)</f>
-        <v>586.08000000000004</v>
-      </c>
-      <c r="H8" s="3">
-        <v>586.08000000000004</v>
+        <v>516.64</v>
+      </c>
+      <c r="H8" s="7">
+        <v>522</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="3">
-        <v>925</v>
+      <c r="C9" s="8">
+        <v>1346</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <f t="shared" ref="D9" si="5">C9-C7</f>
+        <v>4</v>
       </c>
       <c r="E9" s="3">
-        <v>2.4300000000000002</v>
+        <v>2.68</v>
       </c>
       <c r="F9" s="3">
-        <f t="shared" si="1"/>
-        <v>60.750000000000007</v>
+        <f t="shared" si="4"/>
+        <v>10.72</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>43725</v>
-      </c>
-      <c r="B10" s="5" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>44452</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="3">
-        <v>2327</v>
+        <v>3526</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="0"/>
-        <v>200</v>
+        <f t="shared" ref="D10:D11" si="6">C10-C8</f>
+        <v>174</v>
       </c>
       <c r="E10" s="3">
-        <v>4.49</v>
+        <v>4.96</v>
       </c>
       <c r="F10" s="3">
-        <f t="shared" si="1"/>
-        <v>898</v>
+        <f t="shared" ref="F10:F11" si="7">D10*E10</f>
+        <v>863.04</v>
       </c>
       <c r="G10" s="3">
-        <f t="shared" si="2"/>
-        <v>898</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1019.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <f>SUM(F10,F11)</f>
+        <v>1013.12</v>
+      </c>
+      <c r="H10" s="7">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="3">
-        <v>975</v>
+        <v>1402</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="0"/>
-        <v>50</v>
+        <f t="shared" si="6"/>
+        <v>56</v>
       </c>
       <c r="E11" s="3">
-        <v>2.4300000000000002</v>
+        <v>2.68</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" si="1"/>
-        <v>121.50000000000001</v>
-      </c>
-      <c r="G11" s="3">
-        <f t="shared" si="2"/>
-        <v>121.50000000000001</v>
-      </c>
+        <f t="shared" si="7"/>
+        <v>150.08000000000001</v>
+      </c>
+      <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>43976</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="3">
-        <v>2510</v>
-      </c>
-      <c r="D12" s="3">
-        <f t="shared" ref="D12:D13" si="3">C12-C10</f>
-        <v>183</v>
-      </c>
-      <c r="E12" s="3">
-        <v>4.49</v>
-      </c>
-      <c r="F12" s="3">
-        <f t="shared" ref="F12:F13" si="4">D12*E12</f>
-        <v>821.67000000000007</v>
-      </c>
-      <c r="G12" s="3">
-        <f t="shared" ref="G12:G13" si="5">F12</f>
-        <v>821.67000000000007</v>
-      </c>
-      <c r="H12" s="3">
-        <v>1011.21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1053</v>
-      </c>
-      <c r="D13" s="3">
-        <f t="shared" si="3"/>
-        <v>78</v>
-      </c>
-      <c r="E13" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F13" s="3">
-        <f t="shared" si="4"/>
-        <v>189.54000000000002</v>
-      </c>
-      <c r="G13" s="3">
-        <f t="shared" si="5"/>
-        <v>189.54000000000002</v>
-      </c>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>44040</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="3">
-        <v>2731</v>
-      </c>
-      <c r="D14" s="3">
-        <f t="shared" ref="D14:D15" si="6">C14-C12</f>
-        <v>221</v>
-      </c>
-      <c r="E14" s="3">
-        <v>4.71</v>
-      </c>
-      <c r="F14" s="3">
-        <f t="shared" ref="F14:F15" si="7">D14*E14</f>
-        <v>1040.9100000000001</v>
-      </c>
-      <c r="G14" s="3">
-        <f>SUM(F14,F15)</f>
-        <v>1199.01</v>
-      </c>
-      <c r="H14" s="3">
-        <v>1201.1300000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="3">
-        <v>1115</v>
-      </c>
-      <c r="D15" s="3">
-        <f t="shared" si="6"/>
-        <v>62</v>
-      </c>
-      <c r="E15" s="3">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F15" s="3">
-        <f t="shared" si="7"/>
-        <v>158.1</v>
-      </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <v>44074</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="3">
-        <v>2843</v>
-      </c>
-      <c r="D16" s="3">
-        <f t="shared" ref="D16:D17" si="8">C16-C14</f>
-        <v>112</v>
-      </c>
-      <c r="E16" s="3">
-        <v>4.71</v>
-      </c>
-      <c r="F16" s="3">
-        <f t="shared" ref="F16:F17" si="9">D16*E16</f>
-        <v>527.52</v>
-      </c>
-      <c r="G16" s="3">
-        <f>SUM(F16,F17)</f>
-        <v>609.12</v>
-      </c>
-      <c r="H16" s="3">
-        <v>609.12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="3">
-        <v>1147</v>
-      </c>
-      <c r="D17" s="3">
-        <f t="shared" si="8"/>
-        <v>32</v>
-      </c>
-      <c r="E17" s="3">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F17" s="3">
-        <f t="shared" si="9"/>
-        <v>81.599999999999994</v>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <v>44106</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="3">
-        <v>2924</v>
-      </c>
-      <c r="D18" s="3">
-        <f t="shared" ref="D18:D19" si="10">C18-C16</f>
-        <v>81</v>
-      </c>
-      <c r="E18" s="3">
-        <v>4.71</v>
-      </c>
-      <c r="F18" s="3">
-        <f t="shared" ref="F18:F19" si="11">D18*E18</f>
-        <v>381.51</v>
-      </c>
-      <c r="G18" s="3">
-        <f>SUM(F18,F19)</f>
-        <v>445.26</v>
-      </c>
-      <c r="H18" s="3">
-        <v>445.26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="3">
-        <v>1172</v>
-      </c>
-      <c r="D19" s="3">
-        <f t="shared" si="10"/>
-        <v>25</v>
-      </c>
-      <c r="E19" s="3">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F19" s="3">
-        <f t="shared" si="11"/>
-        <v>63.749999999999993</v>
-      </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
-        <v>44343</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="3">
-        <v>3114</v>
-      </c>
-      <c r="D20" s="3">
-        <f t="shared" ref="D20:D21" si="12">C20-C18</f>
-        <v>190</v>
-      </c>
-      <c r="E20" s="3">
-        <v>4.71</v>
-      </c>
-      <c r="F20" s="3">
-        <f t="shared" ref="F20:F21" si="13">D20*E20</f>
-        <v>894.9</v>
-      </c>
-      <c r="G20" s="3">
-        <f>SUM(F20,F21)</f>
-        <v>1124.3999999999999</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1124.4000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="3">
-        <v>1262</v>
-      </c>
-      <c r="D21" s="3">
-        <f t="shared" si="12"/>
-        <v>90</v>
-      </c>
-      <c r="E21" s="3">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F21" s="3">
-        <f t="shared" si="13"/>
-        <v>229.49999999999997</v>
-      </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
-        <v>44375</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="9">
-        <v>3250</v>
-      </c>
-      <c r="D22" s="3">
-        <f t="shared" ref="D22:D23" si="14">C22-C20</f>
-        <v>136</v>
-      </c>
-      <c r="E22" s="3">
-        <v>4.71</v>
-      </c>
-      <c r="F22" s="3">
-        <f t="shared" ref="F22:F23" si="15">D22*E22</f>
-        <v>640.55999999999995</v>
-      </c>
-      <c r="G22" s="3">
-        <f>SUM(F22,F23)</f>
-        <v>844.56</v>
-      </c>
-      <c r="H22" s="3">
-        <v>863.4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="9">
-        <v>1342</v>
-      </c>
-      <c r="D23" s="3">
-        <f t="shared" si="14"/>
-        <v>80</v>
-      </c>
-      <c r="E23" s="3">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F23" s="3">
-        <f t="shared" si="15"/>
-        <v>204</v>
-      </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
-        <v>44419</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="9">
-        <v>3352</v>
-      </c>
-      <c r="D24" s="3">
-        <v>102</v>
-      </c>
-      <c r="E24" s="3">
-        <v>4.96</v>
-      </c>
-      <c r="F24" s="3">
-        <f t="shared" ref="F24:F25" si="16">D24*E24</f>
-        <v>505.92</v>
-      </c>
-      <c r="G24" s="3">
-        <f>SUM(F24,F25)</f>
-        <v>516.64</v>
-      </c>
-      <c r="H24" s="8">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="9">
-        <v>1346</v>
-      </c>
-      <c r="D25" s="3">
-        <f t="shared" ref="D24:D25" si="17">C25-C23</f>
-        <v>4</v>
-      </c>
-      <c r="E25" s="3">
-        <v>2.68</v>
-      </c>
-      <c r="F25" s="3">
-        <f t="shared" si="16"/>
-        <v>10.72</v>
-      </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
-        <v>44452</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="3">
-        <v>3526</v>
-      </c>
-      <c r="D26" s="3">
-        <f t="shared" ref="D26:D27" si="18">C26-C24</f>
-        <v>174</v>
-      </c>
-      <c r="E26" s="3">
-        <v>4.96</v>
-      </c>
-      <c r="F26" s="3">
-        <f t="shared" ref="F26:F27" si="19">D26*E26</f>
-        <v>863.04</v>
-      </c>
-      <c r="G26" s="3">
-        <f>SUM(F26,F27)</f>
-        <v>1013.12</v>
-      </c>
-      <c r="H26" s="8">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="3">
-        <v>1402</v>
-      </c>
-      <c r="D27" s="3">
-        <f t="shared" si="18"/>
-        <v>56</v>
-      </c>
-      <c r="E27" s="3">
-        <v>2.68</v>
-      </c>
-      <c r="F27" s="3">
-        <f t="shared" si="19"/>
-        <v>150.08000000000001</v>
-      </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
